--- a/xlsx/下议院_intext.xlsx
+++ b/xlsx/下议院_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="191">
   <si>
     <t>下议院</t>
   </si>
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>立法機構</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_下议院</t>
+    <t>立法机构</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_下议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>議院</t>
+    <t>议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E9%99%A2%E5%88%B6</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E9%99%A2%E5%88%B6</t>
   </si>
   <si>
-    <t>兩院制</t>
+    <t>两院制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E9%99%A2%E5%88%B6</t>
@@ -71,37 +71,37 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>上議院</t>
+    <t>上议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%83%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>參議院</t>
+    <t>参议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9C%BE%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>眾議院</t>
+    <t>众议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>議會</t>
+    <t>议会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E6%9C%83%E5%88%B6</t>
   </si>
   <si>
-    <t>議會制</t>
+    <t>议会制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E6%9C%83%E9%BB%A8%E5%9C%98</t>
   </si>
   <si>
-    <t>議會黨團</t>
+    <t>议会党团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E4%BC%9A%E8%AE%AE%E5%91%98</t>
@@ -113,37 +113,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E8%AD%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>國家議會</t>
+    <t>国家议会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E6%9C%83%E7%A8%8B%E5%BA%8F</t>
   </si>
   <si>
-    <t>議會程序</t>
+    <t>议会程序</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>委員會</t>
+    <t>委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AE%9A%E4%BA%BA%E6%95%B8</t>
   </si>
   <si>
-    <t>法定人數</t>
+    <t>法定人数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E6%A1%88</t>
   </si>
   <si>
-    <t>議案</t>
+    <t>议案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E4%BF%A1%E4%BB%BB%E5%8B%95%E8%AD%B0</t>
   </si>
   <si>
-    <t>不信任動議</t>
+    <t>不信任动议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E4%BC%9A%E8%AE%AE</t>
@@ -155,33 +155,27 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E8%AD%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>市議會</t>
+    <t>市议会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E7%AB%8B%E6%B3%95%E6%A9%9F%E6%A7%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國立法機構列表</t>
+    <t>各国立法机构列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%AB%8B%E6%B3%95%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>Template talk-立法機構</t>
+    <t>Template talk-立法机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%A4%E9%99%A2%E5%88%B6</t>
   </si>
   <si>
-    <t>两院制</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%AE%E4%BC%9A</t>
   </si>
   <si>
-    <t>议会</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB</t>
   </si>
   <si>
@@ -191,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
@@ -203,19 +197,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>澳大利亞</t>
+    <t>澳大利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E5%85%B0%E8%AF%AD</t>
@@ -233,25 +227,22 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E8%AE%AE%E9%99%A2</t>
   </si>
   <si>
-    <t>上议院</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2</t>
   </si>
   <si>
-    <t>歐洲</t>
+    <t>欧洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E7%94%A2%E9%9A%8E%E7%B4%9A</t>
   </si>
   <si>
-    <t>資產階級</t>
+    <t>资产阶级</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%B4%E6%97%8F</t>
   </si>
   <si>
-    <t>貴族</t>
+    <t>贵族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%AE%88</t>
@@ -263,13 +254,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E6%B0%91%E7%9B%B4%E9%81%B8</t>
   </si>
   <si>
-    <t>全民直選</t>
+    <t>全民直选</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%88%B6</t>
   </si>
   <si>
-    <t>聯邦制</t>
+    <t>联邦制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9E</t>
@@ -287,7 +278,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E8%A5%B2</t>
   </si>
   <si>
-    <t>世襲</t>
+    <t>世袭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%84%8F</t>
@@ -305,7 +296,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E9%96%A3%E5%88%B6</t>
   </si>
   <si>
-    <t>內閣制</t>
+    <t>内阁制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%85%E9%98%81</t>
@@ -317,13 +308,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E9%A6%96%E8%85%A6</t>
   </si>
   <si>
-    <t>政府首腦</t>
+    <t>政府首脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%90%86</t>
   </si>
   <si>
-    <t>總理</t>
+    <t>总理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%96%E7%9B%B8</t>
@@ -347,21 +338,18 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7%E7%9C%BE%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>加拿大眾議院</t>
+    <t>加拿大众议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%9C%B0%E5%8D%A1%E5%8F%8A%E5%B7%B4%E5%B8%83%E9%81%94</t>
   </si>
   <si>
-    <t>安地卡及巴布達</t>
+    <t>安地卡及巴布达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A</t>
   </si>
   <si>
-    <t>澳大利亚</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A%E4%BC%97%E8%AE%AE%E9%99%A2</t>
   </si>
   <si>
@@ -371,7 +359,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>白俄羅斯</t>
+    <t>白俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BD%97%E6%96%AF%E4%BC%97%E8%AE%AE%E9%99%A2</t>
@@ -383,7 +371,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF%E5%9B%BD%E5%AE%B6%E6%9D%9C%E9%A9%AC</t>
@@ -401,7 +389,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E5%B0%BC%E4%BA%9E%E8%88%87%E8%B5%AB%E5%A1%9E%E5%93%A5%E7%B6%AD%E7%B4%8D</t>
   </si>
   <si>
-    <t>波士尼亞與赫塞哥維納</t>
+    <t>波士尼亚与赫塞哥维纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A</t>
@@ -425,13 +413,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6%E7%9C%BE%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>印度眾議院</t>
+    <t>印度众议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B3%B6</t>
   </si>
   <si>
-    <t>冰島</t>
+    <t>冰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%99%E4%B9%B0%E5%8A%A0</t>
@@ -449,7 +437,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E7%9C%BE%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>日本眾議院</t>
+    <t>日本众议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A9%E6%AF%94%E9%87%8C%E4%BA%9A</t>
@@ -467,13 +455,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%BE%86%E8%A5%BF%E4%BA%9E%E4%B8%8B%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>馬來西亞下議院</t>
+    <t>马来西亚下议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E4%BB%96</t>
   </si>
   <si>
-    <t>馬爾他</t>
+    <t>马尔他</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%B3%8A%E5%B0%94</t>
@@ -485,19 +473,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%B3%8A%E7%88%BE%E7%9C%BE%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>尼泊爾眾議院</t>
+    <t>尼泊尔众议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E7%AC%AC%E4%BA%8C%E9%99%A2</t>
   </si>
   <si>
-    <t>荷蘭第二院</t>
+    <t>荷兰第二院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%88%E5%8F%8A%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>奈及利亞</t>
+    <t>奈及利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E6%97%A5%E5%88%A9%E4%BA%9A%E4%BC%97%E8%AE%AE%E9%99%A2</t>
@@ -509,7 +497,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
   </si>
   <si>
-    <t>菲律賓</t>
+    <t>菲律宾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A4%9A%E9%BB%8E%E5%90%84</t>
@@ -521,19 +509,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%A6%AC%E5%88%A9%E8%98%AD</t>
   </si>
   <si>
-    <t>索馬利蘭</t>
+    <t>索马利兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%B0%E5%9C%8B</t>
   </si>
   <si>
-    <t>泰國</t>
+    <t>泰国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%83%E9%87%8C%E9%81%94%E5%8F%8A%E6%89%98%E5%B7%B4%E5%93%A5</t>
   </si>
   <si>
-    <t>千里達及托巴哥</t>
+    <t>千里达及托巴哥</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
@@ -545,13 +533,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%89%E9%96%80</t>
   </si>
   <si>
-    <t>葉門</t>
+    <t>叶门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9C%BE%E8%AD%B0%E9%99%A2_(%E4%B9%9F%E9%96%80)</t>
   </si>
   <si>
-    <t>眾議院 (也門)</t>
+    <t>众议院 (也门)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%9C%B0</t>
@@ -563,37 +551,34 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%9C%B0%E5%9C%8B%E6%B0%91%E8%AD%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>海地國民議會</t>
+    <t>海地国民议会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
   </si>
   <si>
-    <t>賽普勒斯</t>
+    <t>赛普勒斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%B5%A6%E8%B7%AF%E6%96%AF%E7%9C%BE%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>塞浦路斯眾議院</t>
+    <t>塞浦路斯众议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E8%98%AD</t>
   </si>
   <si>
-    <t>新西蘭</t>
+    <t>新西兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%A5%BF%E8%98%AD%E7%9C%BE%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>紐西蘭眾議院</t>
+    <t>纽西兰众议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%82%E8%AE%AE%E9%99%A2</t>
-  </si>
-  <si>
-    <t>参议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8B%E8%AD%B0%E9%99%A2</t>
@@ -1698,7 +1683,7 @@
         <v>51</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="G26" t="n">
         <v>2</v>
@@ -1724,10 +1709,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="G27" t="n">
         <v>2</v>
@@ -1753,10 +1738,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G28" t="n">
         <v>5</v>
@@ -1782,10 +1767,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>3</v>
@@ -1811,10 +1796,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>3</v>
@@ -1840,10 +1825,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G31" t="n">
         <v>2</v>
@@ -1869,10 +1854,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G32" t="n">
         <v>2</v>
@@ -1898,10 +1883,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>5</v>
@@ -1927,10 +1912,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1956,10 +1941,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F35" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1985,10 +1970,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F36" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="G36" t="n">
         <v>6</v>
@@ -2014,10 +1999,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F37" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2043,10 +2028,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="F38" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2072,10 +2057,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F39" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2101,10 +2086,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F40" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2130,10 +2115,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F41" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2159,10 +2144,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F42" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2188,10 +2173,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F43" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G43" t="n">
         <v>2</v>
@@ -2217,10 +2202,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F44" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2246,10 +2231,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F45" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2275,10 +2260,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F46" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G46" t="n">
         <v>2</v>
@@ -2304,10 +2289,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F47" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2333,10 +2318,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F48" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2362,10 +2347,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F49" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2391,10 +2376,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F50" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2420,10 +2405,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F51" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2449,10 +2434,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F52" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2507,10 +2492,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F54" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G54" t="n">
         <v>2</v>
@@ -2536,10 +2521,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F55" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2565,10 +2550,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F56" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2594,10 +2579,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F57" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2623,10 +2608,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F58" t="s">
-        <v>114</v>
+        <v>62</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2652,10 +2637,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F59" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2681,10 +2666,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F60" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G60" t="n">
         <v>2</v>
@@ -2710,10 +2695,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F61" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2739,10 +2724,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F62" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G62" t="n">
         <v>4</v>
@@ -2768,10 +2753,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F63" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2797,10 +2782,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F64" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2826,10 +2811,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F65" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2855,10 +2840,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F66" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2884,10 +2869,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F67" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2913,10 +2898,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F68" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G68" t="n">
         <v>3</v>
@@ -2942,10 +2927,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F69" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -2971,10 +2956,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F70" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G70" t="n">
         <v>2</v>
@@ -3000,10 +2985,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F71" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3029,10 +3014,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F72" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G72" t="n">
         <v>2</v>
@@ -3058,10 +3043,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F73" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3087,10 +3072,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F74" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3116,10 +3101,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F75" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G75" t="n">
         <v>2</v>
@@ -3145,10 +3130,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F76" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3174,10 +3159,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F77" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -3203,10 +3188,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F78" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3232,10 +3217,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F79" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3261,10 +3246,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F80" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3290,10 +3275,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F81" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3319,10 +3304,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F82" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3348,10 +3333,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F83" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -3377,10 +3362,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F84" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -3406,10 +3391,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F85" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3435,10 +3420,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F86" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -3464,10 +3449,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F87" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3493,10 +3478,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F88" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3522,10 +3507,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F89" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3551,10 +3536,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F90" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3580,10 +3565,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F91" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G91" t="n">
         <v>2</v>
@@ -3609,10 +3594,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F92" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3638,10 +3623,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F93" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3667,10 +3652,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F94" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3696,10 +3681,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F95" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3725,10 +3710,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F96" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3754,10 +3739,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F97" t="s">
-        <v>192</v>
+        <v>20</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -3783,10 +3768,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F98" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G98" t="n">
         <v>2</v>
@@ -3812,10 +3797,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="F99" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>

--- a/xlsx/下议院_intext.xlsx
+++ b/xlsx/下议院_intext.xlsx
@@ -29,7 +29,7 @@
     <t>立法機構</t>
   </si>
   <si>
-    <t>政策_政策_美國_下议院</t>
+    <t>体育运动_体育运动_欧洲议会_下议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E9%99%A2</t>
@@ -1846,7 +1846,7 @@
         <v>62</v>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H31" t="s">
         <v>4</v>
